--- a/DonorYearlyData.xlsx
+++ b/DonorYearlyData.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11610"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -98,9 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,7 +236,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -321,7 +323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$12:$AD$12</c:f>
+              <c:f>Sheet1!$F$12:$AE$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -448,7 +450,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -535,7 +537,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$13:$AD$13</c:f>
+              <c:f>Sheet1!$F$13:$AE$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -662,7 +664,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -749,7 +751,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$14:$AD$14</c:f>
+              <c:f>Sheet1!$F$14:$AE$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -876,7 +878,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -963,7 +965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$15:$AD$15</c:f>
+              <c:f>Sheet1!$F$15:$AE$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1090,7 +1092,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1177,7 +1179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$16:$AD$16</c:f>
+              <c:f>Sheet1!$F$16:$AE$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1310,7 +1312,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1397,7 +1399,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$17:$AD$17</c:f>
+              <c:f>Sheet1!$F$17:$AE$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1530,7 +1532,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1617,7 +1619,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$18:$AD$18</c:f>
+              <c:f>Sheet1!$F$18:$AE$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1750,7 +1752,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1837,7 +1839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$19:$AD$19</c:f>
+              <c:f>Sheet1!$F$19:$AE$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1934,11 +1936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464344752"/>
-        <c:axId val="507012776"/>
+        <c:axId val="286037808"/>
+        <c:axId val="286038200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="464344752"/>
+        <c:axId val="286037808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +1983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507012776"/>
+        <c:crossAx val="286038200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1989,7 +1991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="507012776"/>
+        <c:axId val="286038200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464344752"/>
+        <c:crossAx val="286037808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2237,7 +2239,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2324,7 +2326,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$AD$21</c:f>
+              <c:f>Sheet1!$F$21:$AE$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2451,7 +2453,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2538,7 +2540,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$22:$AD$22</c:f>
+              <c:f>Sheet1!$F$22:$AE$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2665,7 +2667,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2752,7 +2754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$23:$AD$23</c:f>
+              <c:f>Sheet1!$F$23:$AE$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2879,7 +2881,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2966,7 +2968,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$24:$AD$24</c:f>
+              <c:f>Sheet1!$F$24:$AE$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3093,7 +3095,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3180,7 +3182,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$25:$AD$25</c:f>
+              <c:f>Sheet1!$F$25:$AE$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3313,7 +3315,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3400,7 +3402,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$26:$AD$26</c:f>
+              <c:f>Sheet1!$F$26:$AE$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3533,7 +3535,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3620,7 +3622,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$27:$AD$27</c:f>
+              <c:f>Sheet1!$F$27:$AE$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3753,7 +3755,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$AD$1</c:f>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3840,7 +3842,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$28:$AD$28</c:f>
+              <c:f>Sheet1!$F$28:$AE$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3937,11 +3939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284878240"/>
-        <c:axId val="284878632"/>
+        <c:axId val="287483832"/>
+        <c:axId val="287484224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="284878240"/>
+        <c:axId val="287483832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3984,7 +3986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284878632"/>
+        <c:crossAx val="287484224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3992,7 +3994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284878632"/>
+        <c:axId val="287484224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4043,7 +4045,3814 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284878240"/>
+        <c:crossAx val="287483832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deceased Donor Rates</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0949615483798028E-2"/>
+          <c:y val="0.10169757139210771"/>
+          <c:w val="0.91751606419318721"/>
+          <c:h val="0.65583413669640989"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Deceased Donor White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$12:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5420</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4514</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4494</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4373</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4389</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4124</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4140</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3974</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3552</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3705</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3288</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Deceased Donor Black</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$13:$AE$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Deceased Donor Hispanic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$AE$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Deceased Donor Unknown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$15:$AE$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Deceased Donor Asian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$16:$AE$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Deceased Donor American Indian/Alaska Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$17:$AE$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Deceased Donor Pacific Islander</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$18:$AE$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Deceased Donor Multiracial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$AE$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="287485008"/>
+        <c:axId val="287485400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="287485008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="287485400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="287485400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="287485008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13947824489637317"/>
+          <c:y val="0.82308818365924674"/>
+          <c:w val="0.72104336890593923"/>
+          <c:h val="0.17170856377528343"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Living Donor Rates</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Living Donor White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>4186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4452</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4764</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4763</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3548</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3258</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2882</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2546</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Living Donor Black</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$22:$AE$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Living Donor Hispanic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$23:$AE$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Living Donor Unknown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$24:$AE$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Living Donor Asian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$25:$AE$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Living Donor American Indian/Alaska Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$26:$AE$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Living Donor Pacific Islander</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$AE$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Living Donor Multiracial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$AE$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="410520728"/>
+        <c:axId val="410521120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="410520728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410521120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410521120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410520728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4165,6 +7974,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5210,25 +9099,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5244,21 +10141,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5267,6 +10166,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5538,104 +10501,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1">
         <v>2014</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
+        <v>20.13</v>
+      </c>
+      <c r="F1">
         <v>2013</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2012</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2011</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2010</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2009</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2008</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2007</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2006</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2005</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2004</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2003</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2002</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2001</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2000</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>1999</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>1998</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>1997</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>1996</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>1995</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>1994</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>1993</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>1992</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>1991</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>1990</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>1989</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>1988</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5649,86 +10616,86 @@
       <c r="D2" s="1">
         <v>9512</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>14256</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>14011</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>14148</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>14504</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>14631</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>14207</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>14400</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>14750</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>14497</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>14154</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>13285</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>12821</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>12702</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>11942</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>10871</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>10362</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>9545</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>9222</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>8859</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>8203</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>7766</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>7091</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>6953</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>6632</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>5929</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>5909</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5742,86 +10709,86 @@
       <c r="D3" s="1">
         <v>6497</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>9647</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>9540</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>9634</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>9849</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>9987</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>9666</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>9875</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>10184</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>9982</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>9851</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>9277</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>9186</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>9132</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>8709</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>7921</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>7647</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>7006</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>6841</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>6686</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>6186</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>5863</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>5421</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>5418</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>5326</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>4754</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AE3" s="1">
         <v>4801</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5835,86 +10802,86 @@
       <c r="D4" s="1">
         <v>1276</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2020</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1981</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1995</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2088</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>2055</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>2007</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>1996</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>2065</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>2027</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>1920</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>1766</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>1614</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>1593</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>1426</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>1335</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>1229</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>1183</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>1143</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>1053</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>1016</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>957</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>836</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>757</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>658</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>562</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5928,86 +10895,86 @@
       <c r="D5" s="1">
         <v>1269</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>1942</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1836</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1892</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>1961</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>2032</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>1964</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1971</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>1969</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>1914</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>1827</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>1668</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>1532</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>1485</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>1332</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>1200</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>1100</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>993</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>904</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>838</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>710</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>775</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>623</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>610</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>511</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>461</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6021,9 +10988,6 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -6052,55 +11016,58 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>19</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>22</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>44</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>28</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>65</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>21</v>
-      </c>
-      <c r="X6">
-        <v>10</v>
       </c>
       <c r="Y6">
         <v>10</v>
       </c>
       <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
         <v>38</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>21</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>20</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>14</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6114,86 +11081,86 @@
       <c r="D7">
         <v>286</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>417</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>429</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>400</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>405</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>418</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>423</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>395</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>364</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>380</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>367</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>340</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>303</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>326</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>317</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>232</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>205</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>193</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>157</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>141</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>154</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>67</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>79</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>62</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>48</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>65</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6207,86 +11174,86 @@
       <c r="D8">
         <v>48</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>63</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>62</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>54</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>55</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>61</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>67</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>71</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>67</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>75</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>58</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>62</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>60</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>63</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>48</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>60</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>31</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>43</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>36</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>55</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>42</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>23</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>30</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>32</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>25</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>27</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -6300,86 +11267,86 @@
       <c r="D9">
         <v>27</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>37</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>28</v>
-      </c>
-      <c r="G9">
-        <v>25</v>
       </c>
       <c r="H9">
         <v>25</v>
       </c>
       <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9">
         <v>27</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>26</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>25</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>26</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>21</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>29</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>55</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>49</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>52</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>57</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>52</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>58</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>35</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>37</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>36</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>51</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>59</v>
-      </c>
-      <c r="Z9">
-        <v>51</v>
       </c>
       <c r="AA9">
         <v>51</v>
       </c>
       <c r="AB9">
+        <v>51</v>
+      </c>
+      <c r="AC9">
         <v>35</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>37</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -6393,86 +11360,86 @@
       <c r="D10">
         <v>109</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>130</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>135</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>148</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>121</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>51</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>54</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>67</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>75</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>98</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>102</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>98</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>76</v>
-      </c>
-      <c r="Q10">
-        <v>50</v>
       </c>
       <c r="R10">
         <v>50</v>
       </c>
       <c r="S10">
+        <v>50</v>
+      </c>
+      <c r="T10">
         <v>49</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>48</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>64</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>39</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>29</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>34</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>12</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>13</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>2</v>
-      </c>
-      <c r="AB10">
-        <v>9</v>
       </c>
       <c r="AC10">
         <v>9</v>
       </c>
       <c r="AD10">
+        <v>9</v>
+      </c>
+      <c r="AE10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6486,86 +11453,86 @@
       <c r="D11" s="1">
         <v>5658</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>8268</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>8143</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>8126</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>7943</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>8022</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>7989</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>8085</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>8017</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>7593</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>7150</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>6457</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>6190</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>6080</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>5985</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>5824</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>5793</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>5479</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>5418</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>5363</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>5099</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>4861</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AA11" s="1">
         <v>4520</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AB11" s="1">
         <v>4526</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AC11" s="1">
         <v>4509</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AD11" s="1">
         <v>4011</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AE11" s="1">
         <v>4080</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6579,86 +11546,90 @@
       <c r="D12" s="1">
         <v>3781</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
+        <f>D12/$D$11</f>
+        <v>0.66825733474726057</v>
+      </c>
+      <c r="F12" s="1">
         <v>5461</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>5382</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>5397</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>5284</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>5366</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>5345</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>5423</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>5420</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>5175</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>4968</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>4514</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>4474</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>4429</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>4494</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>4373</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>4389</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>4124</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>4136</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>4140</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>3974</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <v>3800</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA12" s="1">
         <v>3552</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>3622</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AC12" s="1">
         <v>3705</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <v>3288</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AE12" s="1">
         <v>3406</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6672,86 +11643,90 @@
       <c r="D13">
         <v>876</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:E19" si="1">D13/$D$11</f>
+        <v>0.15482502651113467</v>
+      </c>
+      <c r="F13" s="1">
         <v>1370</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>1369</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>1296</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>1323</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>1301</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>1276</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>1250</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>1244</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>1136</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>978</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>861</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>785</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>740</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>692</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>637</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>646</v>
-      </c>
-      <c r="U13">
-        <v>651</v>
       </c>
       <c r="V13">
         <v>651</v>
       </c>
       <c r="W13">
+        <v>651</v>
+      </c>
+      <c r="X13">
         <v>611</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>584</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>555</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>513</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>466</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>438</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>346</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6765,86 +11740,90 @@
       <c r="D14">
         <v>724</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.127960410038883</v>
+      </c>
+      <c r="F14" s="1">
         <v>1111</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>1033</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>1078</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>1029</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>1098</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>1119</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>1139</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>1097</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>1030</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>950</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>822</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>733</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>711</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>620</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>612</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>571</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>514</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>461</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>468</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>408</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>425</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>340</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>356</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>296</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>293</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -6858,7 +11837,8 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15">
@@ -6889,55 +11869,58 @@
         <v>0</v>
       </c>
       <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>19</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <v>2</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>16</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>36</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>20</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>30</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>15</v>
-      </c>
-      <c r="X15">
-        <v>6</v>
       </c>
       <c r="Y15">
         <v>6</v>
       </c>
       <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15">
         <v>27</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>12</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>11</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>9</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -6951,86 +11934,90 @@
       <c r="D16">
         <v>141</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4920466595970307E-2</v>
+      </c>
+      <c r="F16">
         <v>189</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>219</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>190</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>182</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>192</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>188</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>178</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>175</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>153</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>156</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>141</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>111</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>137</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>116</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>118</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>90</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>102</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>84</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>75</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>86</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>54</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>65</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>51</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>40</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>54</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7044,86 +12031,90 @@
       <c r="D17">
         <v>32</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6557087310003537E-3</v>
+      </c>
+      <c r="F17">
         <v>38</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>32</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>32</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>30</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>29</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>39</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>22</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>40</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>25</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>19</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>22</v>
-      </c>
-      <c r="Q17">
-        <v>15</v>
       </c>
       <c r="R17">
         <v>15</v>
       </c>
       <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
         <v>22</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>9</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>15</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>14</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>23</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>17</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>8</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>9</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>15</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>9</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>10</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -7137,86 +12128,90 @@
       <c r="D18">
         <v>23</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0650406504065045E-3</v>
+      </c>
+      <c r="F18">
         <v>21</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>19</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>21</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>11</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>12</v>
-      </c>
-      <c r="J18">
-        <v>13</v>
       </c>
       <c r="K18">
         <v>13</v>
       </c>
       <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18">
         <v>19</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>9</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>14</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>26</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>23</v>
-      </c>
-      <c r="Q18">
-        <v>22</v>
       </c>
       <c r="R18">
         <v>22</v>
       </c>
       <c r="S18">
+        <v>22</v>
+      </c>
+      <c r="T18">
         <v>19</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>22</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>13</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>16</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>13</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>10</v>
-      </c>
-      <c r="Y18">
-        <v>6</v>
       </c>
       <c r="Z18">
         <v>6</v>
       </c>
       <c r="AA18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB18">
         <v>4</v>
       </c>
       <c r="AC18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD18">
         <v>3</v>
       </c>
+      <c r="AE18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -7230,86 +12225,90 @@
       <c r="D19">
         <v>81</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4316012725344645E-2</v>
+      </c>
+      <c r="F19">
         <v>78</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>89</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>110</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>82</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>23</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>19</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>43</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>40</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>50</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>59</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>55</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>41</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>25</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>24</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>27</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>30</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>40</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>26</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>18</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>14</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>7</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>8</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>6</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>8</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -7323,86 +12322,86 @@
       <c r="D20" s="1">
         <v>3854</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>5988</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>5868</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>6022</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>6561</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>6609</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>6218</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>6315</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>6733</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>6904</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>7004</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>6828</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>6631</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>6622</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>5957</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>5047</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>4569</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>4066</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>3804</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>3496</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>3104</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <v>2905</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
         <v>2571</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>2427</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="1">
         <v>2123</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AD20" s="1">
         <v>1918</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AE20" s="1">
         <v>1829</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -7416,86 +12415,90 @@
       <c r="D21" s="1">
         <v>2716</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
+        <f>D21/$D$20</f>
+        <v>0.70472236637259988</v>
+      </c>
+      <c r="F21" s="1">
         <v>4186</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>4158</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>4237</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>4565</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>4621</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>4321</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>4452</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>4764</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>4807</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>4883</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>4763</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>4712</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>4703</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <v>4215</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <v>3548</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>3258</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <v>2882</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>2705</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>2546</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>2212</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1">
         <v>2063</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AA21" s="1">
         <v>1869</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>1796</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AC21" s="1">
         <v>1621</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <v>1466</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>1395</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -7509,86 +12512,90 @@
       <c r="D22">
         <v>400</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
+        <f t="shared" ref="E22:E28" si="2">D22/$D$20</f>
+        <v>0.10378827192527244</v>
+      </c>
+      <c r="F22">
         <v>650</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>612</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>699</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>765</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>754</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>731</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>746</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>821</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>891</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>942</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>905</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>829</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>853</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>734</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>698</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>583</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>532</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>492</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>442</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>432</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>402</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>323</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>291</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>220</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>216</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -7602,86 +12609,90 @@
       <c r="D23">
         <v>545</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1414115204981837</v>
+      </c>
+      <c r="F23">
         <v>831</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>803</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>814</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>932</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>934</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>845</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>832</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>872</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>884</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>877</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>846</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>799</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>774</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>712</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>588</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>529</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>479</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>443</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>370</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>302</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>350</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>283</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>254</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>215</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>168</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -7695,7 +12706,8 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -7735,46 +12747,49 @@
         <v>0</v>
       </c>
       <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>1</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>6</v>
-      </c>
-      <c r="T24">
-        <v>8</v>
       </c>
       <c r="U24">
         <v>8</v>
       </c>
       <c r="V24">
+        <v>8</v>
+      </c>
+      <c r="W24">
         <v>35</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>6</v>
-      </c>
-      <c r="X24">
-        <v>4</v>
       </c>
       <c r="Y24">
         <v>4</v>
       </c>
       <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
         <v>11</v>
-      </c>
-      <c r="AA24">
-        <v>9</v>
       </c>
       <c r="AB24">
         <v>9</v>
       </c>
       <c r="AC24">
+        <v>9</v>
+      </c>
+      <c r="AD24">
         <v>5</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -7788,86 +12803,90 @@
       <c r="D25">
         <v>145</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7623248572911258E-2</v>
+      </c>
+      <c r="F25">
         <v>228</v>
-      </c>
-      <c r="F25">
-        <v>210</v>
       </c>
       <c r="G25">
         <v>210</v>
       </c>
       <c r="H25">
+        <v>210</v>
+      </c>
+      <c r="I25">
         <v>223</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>226</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>235</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>217</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>189</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>227</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>211</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>199</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>192</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>189</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>201</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>114</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>115</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>91</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>73</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>66</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>68</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>13</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>14</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>11</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>8</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>11</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -7881,86 +12900,90 @@
       <c r="D26">
         <v>16</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1515308770108976E-3</v>
+      </c>
+      <c r="F26">
         <v>25</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>30</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>20</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>23</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>31</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>38</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>32</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>45</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>35</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>33</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>43</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>38</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>48</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>33</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>38</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>22</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>28</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>22</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>32</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>25</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>15</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>21</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>17</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>16</v>
-      </c>
-      <c r="AC26">
-        <v>17</v>
       </c>
       <c r="AD26">
         <v>17</v>
       </c>
+      <c r="AE26">
+        <v>17</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -7974,86 +12997,90 @@
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0378827192527244E-3</v>
+      </c>
+      <c r="F27">
         <v>16</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>9</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>4</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>14</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>15</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>13</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>12</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>7</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>12</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>15</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>29</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>26</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>30</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>35</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>33</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>36</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>22</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>21</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>23</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>41</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>53</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>45</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>47</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>31</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>34</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -8067,88 +13094,104 @@
       <c r="D28">
         <v>28</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>7.2651790347690714E-3</v>
+      </c>
+      <c r="F28">
         <v>52</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>46</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>38</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>39</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>28</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>35</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>24</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>35</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>48</v>
-      </c>
-      <c r="N28">
-        <v>43</v>
       </c>
       <c r="O28">
         <v>43</v>
       </c>
       <c r="P28">
+        <v>43</v>
+      </c>
+      <c r="Q28">
         <v>35</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>25</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>26</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>22</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>18</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>24</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>13</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>11</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>20</v>
-      </c>
-      <c r="Y28">
-        <v>5</v>
       </c>
       <c r="Z28">
         <v>5</v>
       </c>
       <c r="AA28">
+        <v>5</v>
+      </c>
+      <c r="AB28">
         <v>2</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>3</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DonorYearlyData.xlsx
+++ b/DonorYearlyData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceharvey\Documents\Personal\School\Directed-Reading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_000\Documents\school\Directed-Reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1936,11 +1936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286037808"/>
-        <c:axId val="286038200"/>
+        <c:axId val="246965664"/>
+        <c:axId val="246968104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286037808"/>
+        <c:axId val="246965664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,7 +1983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286038200"/>
+        <c:crossAx val="246968104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1991,7 +1991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286038200"/>
+        <c:axId val="246968104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,7 +2042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286037808"/>
+        <c:crossAx val="246965664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3939,11 +3939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="287483832"/>
-        <c:axId val="287484224"/>
+        <c:axId val="247164344"/>
+        <c:axId val="210536840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="287483832"/>
+        <c:axId val="247164344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3986,7 +3986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287484224"/>
+        <c:crossAx val="210536840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3994,7 +3994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287484224"/>
+        <c:axId val="210536840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4045,7 +4045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287483832"/>
+        <c:crossAx val="247164344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5843,11 +5843,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="287485008"/>
-        <c:axId val="287485400"/>
+        <c:axId val="210537624"/>
+        <c:axId val="210538408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="287485008"/>
+        <c:axId val="210537624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5890,7 +5890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287485400"/>
+        <c:crossAx val="210538408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5898,7 +5898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287485400"/>
+        <c:axId val="210538408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5949,7 +5949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287485008"/>
+        <c:crossAx val="210537624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7746,11 +7746,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="410520728"/>
-        <c:axId val="410521120"/>
+        <c:axId val="247337296"/>
+        <c:axId val="247336512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="410520728"/>
+        <c:axId val="247337296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7793,7 +7793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410521120"/>
+        <c:crossAx val="247336512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7801,7 +7801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="410521120"/>
+        <c:axId val="247336512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7852,7 +7852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410520728"/>
+        <c:crossAx val="247337296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10141,14 +10141,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
@@ -10503,8 +10503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13187,7 +13187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
